--- a/data/symbol-02152019.xlsx
+++ b/data/symbol-02152019.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaid.tashman/Documents/portfolio-optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0C3260-D156-A54D-A17D-B2095886CF2D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F229D2-3D06-824E-BD1C-38694BA194DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{5260FE8B-ADFF-D94A-BB15-C7A14AC29239}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{5260FE8B-ADFF-D94A-BB15-C7A14AC29239}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4516" uniqueCount="1514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5016" uniqueCount="1514">
   <si>
     <t>Symbol </t>
   </si>
@@ -22035,7 +22036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174FC9A1-8303-F74B-B2C4-8B19766CF65E}">
   <dimension ref="A1:EDP1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -33549,4 +33550,1996 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98529763-0658-924F-A81F-EDB4F4048BB7}">
+  <dimension ref="A1:SF1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="14" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="15" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="13" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="12" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="14" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="14" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="14" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="14" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="14" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="13" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="161" max="162" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="10" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="13" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="14" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="15" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="182" max="183" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="13" bestFit="1" customWidth="1"/>
+    <col min="188" max="189" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="192" max="193" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="13" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="14" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="13" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="13" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="13" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="14" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="223" max="224" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="13" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="11" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="13" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="13" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="14" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="12" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="14" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="13" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="13" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="266" max="267" width="13" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="13" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="290" max="291" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="14" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="14" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="310" max="310" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="312" max="313" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="318" max="318" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="319" max="319" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="320" max="320" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="321" max="321" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="322" max="322" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="325" max="326" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="329" max="329" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="330" max="330" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="331" max="331" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="332" max="332" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="333" max="333" width="13" bestFit="1" customWidth="1"/>
+    <col min="334" max="334" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="335" max="335" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="336" max="336" width="13" bestFit="1" customWidth="1"/>
+    <col min="337" max="337" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="338" max="339" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="340" max="340" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="341" max="341" width="14" bestFit="1" customWidth="1"/>
+    <col min="342" max="342" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="343" max="343" width="13" bestFit="1" customWidth="1"/>
+    <col min="344" max="344" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="345" max="345" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="346" max="346" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="347" max="347" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="348" max="348" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="349" max="349" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="350" max="350" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="351" max="351" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="352" max="352" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="353" max="353" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="354" max="354" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="355" max="355" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="356" max="356" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="357" max="357" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="358" max="358" width="11" bestFit="1" customWidth="1"/>
+    <col min="359" max="359" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="360" max="360" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="361" max="361" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="362" max="362" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="363" max="363" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="364" max="364" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="365" max="365" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="366" max="366" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="367" max="367" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="368" max="368" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="369" max="369" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="370" max="370" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="371" max="371" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="372" max="372" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="373" max="373" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="374" max="374" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="375" max="375" width="13" bestFit="1" customWidth="1"/>
+    <col min="376" max="376" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="377" max="377" width="15" bestFit="1" customWidth="1"/>
+    <col min="378" max="378" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="379" max="379" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="380" max="380" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="381" max="381" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="382" max="382" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="383" max="383" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="384" max="385" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="386" max="386" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="387" max="387" width="12" bestFit="1" customWidth="1"/>
+    <col min="388" max="388" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="389" max="389" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="390" max="390" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="391" max="391" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="392" max="392" width="13" bestFit="1" customWidth="1"/>
+    <col min="393" max="393" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="394" max="394" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="395" max="395" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="396" max="396" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="397" max="397" width="12" bestFit="1" customWidth="1"/>
+    <col min="398" max="398" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="399" max="399" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="400" max="400" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="401" max="401" width="13" bestFit="1" customWidth="1"/>
+    <col min="402" max="402" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="403" max="403" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="404" max="404" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="405" max="405" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="406" max="406" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="407" max="407" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="408" max="408" width="12" bestFit="1" customWidth="1"/>
+    <col min="409" max="409" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="410" max="410" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="411" max="411" width="14" bestFit="1" customWidth="1"/>
+    <col min="412" max="413" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="414" max="414" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="415" max="416" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="417" max="417" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="418" max="418" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="419" max="419" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="420" max="420" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="421" max="421" width="12" bestFit="1" customWidth="1"/>
+    <col min="422" max="422" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="423" max="423" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="424" max="424" width="15" bestFit="1" customWidth="1"/>
+    <col min="425" max="425" width="12" bestFit="1" customWidth="1"/>
+    <col min="426" max="426" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="427" max="428" width="13" bestFit="1" customWidth="1"/>
+    <col min="429" max="429" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="430" max="430" width="14" bestFit="1" customWidth="1"/>
+    <col min="431" max="431" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="432" max="432" width="14" bestFit="1" customWidth="1"/>
+    <col min="433" max="433" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="434" max="434" width="14" bestFit="1" customWidth="1"/>
+    <col min="435" max="435" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="436" max="436" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="437" max="437" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="438" max="438" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="439" max="439" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="440" max="440" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="441" max="443" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="444" max="445" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="446" max="447" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="448" max="448" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="449" max="449" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="450" max="450" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="451" max="451" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="452" max="452" width="14" bestFit="1" customWidth="1"/>
+    <col min="453" max="454" width="13" bestFit="1" customWidth="1"/>
+    <col min="455" max="455" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="456" max="456" width="13" bestFit="1" customWidth="1"/>
+    <col min="457" max="457" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="458" max="459" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="460" max="460" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="461" max="461" width="13" bestFit="1" customWidth="1"/>
+    <col min="462" max="462" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="463" max="463" width="14" bestFit="1" customWidth="1"/>
+    <col min="464" max="464" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="465" max="465" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="466" max="466" width="14" bestFit="1" customWidth="1"/>
+    <col min="467" max="467" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="468" max="468" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="469" max="469" width="13" bestFit="1" customWidth="1"/>
+    <col min="470" max="470" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="471" max="471" width="14" bestFit="1" customWidth="1"/>
+    <col min="472" max="472" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="473" max="473" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="474" max="474" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="475" max="476" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="477" max="477" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="478" max="478" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="479" max="479" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="480" max="480" width="12" bestFit="1" customWidth="1"/>
+    <col min="481" max="481" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="482" max="482" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="483" max="483" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="484" max="484" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="485" max="485" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="486" max="486" width="12" bestFit="1" customWidth="1"/>
+    <col min="487" max="487" width="14" bestFit="1" customWidth="1"/>
+    <col min="488" max="488" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="489" max="489" width="13" bestFit="1" customWidth="1"/>
+    <col min="490" max="490" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="491" max="493" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="494" max="494" width="13" bestFit="1" customWidth="1"/>
+    <col min="495" max="495" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="496" max="496" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="497" max="497" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="498" max="498" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="499" max="499" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="500" max="500" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:500">
+      <c r="A1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="HP1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="HQ1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="HT1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="HU1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="HV1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="HW1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="HX1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="HY1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="HZ1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="IA1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="IB1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="IC1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="ID1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="IE1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="IF1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="IG1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="IH1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="II1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="IJ1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="IK1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="IL1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="IM1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="IN1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="IO1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="IP1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="IQ1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="IR1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="IS1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="IT1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="IU1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="IV1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="IW1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="IX1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="IY1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="IZ1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="JA1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="JB1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="JC1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="JD1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="JE1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="JF1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="JG1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="JH1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="JI1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="JJ1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="JK1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="JL1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="JM1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="JN1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="JO1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="JP1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="JQ1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="JR1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="JS1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="JT1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="JU1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="JV1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="JW1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="JX1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="JY1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="JZ1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="KA1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="KB1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="KC1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="KD1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="KE1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="KF1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="KG1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="KH1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="KI1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="KJ1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="KK1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="KL1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="KM1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="KN1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="KO1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="KP1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="KQ1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="KR1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="KS1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="KT1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="KU1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="KV1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="KW1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="KX1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="KY1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="KZ1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="LA1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="LB1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="LC1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="LD1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="LE1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="LF1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="LG1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="LH1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="LI1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="LJ1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="LK1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="LL1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="LM1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="LN1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="LO1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="LP1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="LQ1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="LR1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="LS1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="LT1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="LU1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="LV1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="LW1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="LX1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="LY1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="LZ1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="MA1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="MB1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="MC1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="MD1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="ME1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="MF1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="MG1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="MH1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="MI1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="MJ1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="MK1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="ML1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="MM1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="MN1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="MO1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="MP1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="MQ1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="MR1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="MS1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="MT1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="MU1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="MV1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="MW1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="MX1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="MY1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="MZ1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="NA1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="NB1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="NC1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="ND1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="NE1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="NF1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="NG1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="NH1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="NI1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="NJ1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="NK1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="NL1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="NM1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="NN1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="NO1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="NP1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="NQ1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="NR1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="NS1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="NT1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="NU1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="NV1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="NW1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="NX1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="NY1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="NZ1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="OA1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="OB1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="OC1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="OD1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="OE1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="OF1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="OG1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="OH1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="OI1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="OJ1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="OK1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="OL1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="OM1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="ON1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="OO1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="OP1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="OQ1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="OR1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="OS1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="OT1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="OU1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="OV1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="OW1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="OX1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="OY1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="OZ1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="PA1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="PB1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="PC1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="PD1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="PE1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="PF1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="PG1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="PH1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="PI1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="PJ1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="PK1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="PL1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="PM1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="PN1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="PO1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="PP1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="PQ1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="PR1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="PS1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="PT1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="PU1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="PV1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="PW1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="PX1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="PY1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="PZ1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="QA1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="QB1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="QC1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="QD1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="QE1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="QF1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="QG1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="QH1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="QI1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="QJ1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="QK1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="QL1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="QM1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="QN1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="QO1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="QP1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="QQ1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="QR1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="QS1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="QT1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="QU1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="QV1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="QW1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="QX1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="QY1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="QZ1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="RA1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="RB1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="RC1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="RD1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="RE1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="RF1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="RG1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="RH1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="RI1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="RJ1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="RK1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="RL1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="RM1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="RN1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="RO1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="RP1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="RQ1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="RR1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="RS1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="RT1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="RU1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="RV1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="RW1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="RX1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="RY1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="RZ1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="SA1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="SB1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="SC1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="SD1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="SE1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="SF1" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/symbol-02152019.xlsx
+++ b/data/symbol-02152019.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaid.tashman/Documents/portfolio-optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F229D2-3D06-824E-BD1C-38694BA194DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FDBCD7-8495-2745-90BC-9AD60C2AB778}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{5260FE8B-ADFF-D94A-BB15-C7A14AC29239}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{5260FE8B-ADFF-D94A-BB15-C7A14AC29239}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5016" uniqueCount="1514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6516" uniqueCount="2014">
   <si>
     <t>Symbol </t>
   </si>
@@ -4574,6 +4577,1506 @@
   </si>
   <si>
     <t xml:space="preserve"> "</t>
+  </si>
+  <si>
+    <t>NVDA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BAC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AAPL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AMD US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>FB US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MU US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GE US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NFLX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AMZN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BABA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>KO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>LLY US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TSLA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MSFT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>T US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>INTC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CSCO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>VALE US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CGC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>JPM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>EBAY US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BMY US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>PG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>JD US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>EA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>C US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DIS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>QCOM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DISCA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NWL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TWTR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>WMT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CTL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MRK US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AAL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>XOM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CRON US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>PBR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SNAP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SQ US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>FCX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SLB US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CVS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AMAT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SBUX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ET US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CZR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>HD US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DE US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>PFE US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CAT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CELG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NIO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CHK US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>WFC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BIDU US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TWLO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>F US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ATVI US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ACB US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CRM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ELAN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BHC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>X US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>PEP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>HAL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>JNJ US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MAT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>RIG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>XPO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TEVA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>V US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GOOG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ZNGA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MDR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>IBM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MCD US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TLRY US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GOOGL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NVAX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ROKU US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SIRI US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>FDX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AMRN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>PYPL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BBBY US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ITUB US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GILD US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NKE US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>YELP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ABBV US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CLF US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>COTY US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>IMMU US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TGT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DAL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ORCL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>VZ US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>IQ US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CVX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>M US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GOLD US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>UPS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BB US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>COG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>WYNN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>LRCX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AUY US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>YPF US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AABA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CBS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GOOS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NEM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MGM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>FIT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AIG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DWDP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>FOXA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MDLZ US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>PM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ADBE US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AGN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AXTA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TRGP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>VLO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CMG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>PCG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SYMC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>EXAS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DBX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DISH US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ANET US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>PYX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>APC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NBR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NTNX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>FCAU US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MPC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>WDC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BKNG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>UAL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>USB US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AXL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>LOW US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DVN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TXN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NUE US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>PAA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SE US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MDT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>UXIN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>XLNX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>I US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>WMB US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MRVL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BBD US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>IMGN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>UNH US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CMCSA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>HAS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NLSN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AMGN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>STX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AKS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NXPI US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>UTX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>FSLR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AVGO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>COST US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>UAA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SYF US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>LVS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NOK US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>FTR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>LULU US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>LNG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BKS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>KMI US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DB US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MRO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>HLF US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CLR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>QHC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BHP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>VKTX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ELLI US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ABT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NTAP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DUK US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>KEY US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>UNP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>VMW US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>HSBC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CRC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>LEAF US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>OXY US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CSX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>HIIQ US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GRUB US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GME US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CHTR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CAR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>URI US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>HES US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MHK US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SRPT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ICPT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ZAYO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>COP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>UNIT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>FEYE US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>WBA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CTRP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>RIO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>S US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MMM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MET US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ALLY US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AZN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NBEV US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DHI US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CI US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>WDAY US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>WLL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>KKR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SPWR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DBD US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CVNA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TTWO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SPOT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SHOP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CPRI US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>HON US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>LUV US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>LM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>W US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NOW US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>EXC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GRPN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BLMN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>WPX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CVE US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BK US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CYH US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>PVG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TAK US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>RDFN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>RTN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>WFT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>PANW US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SWN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>OSTK US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SFIX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>PRU US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SPLK US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ECA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TME US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>FOSL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AXP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BTG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>STZ US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CYBR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>STLD US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>Z US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BSX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>VOD US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>HOLX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>RF US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BIIB US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CREE US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TECK US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SCHW US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>COF US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CF US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GLW US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ISRG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ESV US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GIS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NTES US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>WTW US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>YNDX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>INFN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CLVS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BUD US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>FGEN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>KSS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>PHM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DLTR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>JCP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>XRX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>WY US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GNW US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>PNC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ZION US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GOGO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>RRC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>EOG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TTM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ZIOP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AMRS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BBY US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ALXN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CIEN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ZTS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MLM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SWKS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TTD US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>EXPE US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SEM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CSIQ US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AEM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SU US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>OPK US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>VRTX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CRR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>LEN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TNDM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CAG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BILI US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CXO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>HPQ US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>EMR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NSC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TSN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MNST US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>WPM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AJRD US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MYL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GLNG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>PXD US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>UN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>LB US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ALGN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>VIPS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MDCO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>PSX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>LKQ US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TPX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>LOGM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ING US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>VTR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>IP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MDRX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>WB US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CME US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MAR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CPE US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MLNX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>VIAB US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TRIP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AKAM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TAP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TMUS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>KR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SWK US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>REGN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>KGC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>LMT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>JBLU US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GRMN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ADSK US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>EXEL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>RCII US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GPRO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AFL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DAN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ADP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>APA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>IRBT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SIX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AVP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AMN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DNR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>IR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DDD US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TPR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>RH US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>YUM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>OKE US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ICE US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BBT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SGMO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NTR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BCS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>RDN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>QEP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>HCLP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ETH US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CTSH US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>EIX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>KHC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CORT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>EPD US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AES US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>RESI US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>KNX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BAX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>JWN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ALL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MTG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MTCH US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CIT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SKX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ADM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>VNOM US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NOC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SNV US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>OAS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CNQ US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CRZO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TAL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>LOXO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>HBI US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CBOE US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>PRTA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GSK US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>OLED US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>PZZA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SGMS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ASND US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CCJ US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TJX US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>JBL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>THC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>FDC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MBI US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>UFS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ADI US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>RIOT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ETN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>WHR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ARRY US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>FNV US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NCR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DKS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AZO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>RACE US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DELL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NRG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>FANG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NGL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>STNG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NYCB US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CMI US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AMTD US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>PAGP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MLCO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>LITE US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ENB US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CTXS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>NKTR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ARNC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>HP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>MCO US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>EXP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>FLR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>KBH US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CP US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GDDY US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>UA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ULTA US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>RCL US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>OFG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>QURE US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>URBN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>TRUE US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DFS US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>YETI US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SPG US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BLK US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>STT US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>SYY US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>ACN US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>CHRW US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>DY US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>GPOR US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>AAOI US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>OMC US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
+  </si>
+  <si>
+    <t>BERY US Equity\n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n</t>
   </si>
 </sst>
 </file>
@@ -33556,8 +35059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98529763-0658-924F-A81F-EDB4F4048BB7}">
   <dimension ref="A1:SF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -35542,4 +37045,6554 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD862DCF-6951-BA40-A5F1-EEA23912D453}">
+  <dimension ref="A1:A500"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A500"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98676E23-F281-E24C-BB58-B06291F4B4CD}">
+  <dimension ref="A1:SF1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:500">
+      <c r="A1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="HP1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="HQ1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="HT1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="HU1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="HV1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="HW1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="HX1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="HY1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="HZ1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="IA1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="IB1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="IC1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="ID1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="IE1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="IF1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="IG1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="IH1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="II1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="IJ1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="IK1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="IL1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="IM1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="IN1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="IO1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="IP1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="IQ1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="IR1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="IS1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="IT1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="IU1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="IV1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="IW1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="IX1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="IY1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="IZ1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="JA1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="JB1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="JC1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="JD1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="JE1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="JF1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="JG1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="JH1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="JI1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="JJ1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="JK1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="JL1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="JM1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="JN1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="JO1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="JP1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="JQ1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="JR1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="JS1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="JT1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="JU1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="JV1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="JW1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="JX1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="JY1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="JZ1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="KA1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="KB1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="KC1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="KD1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="KE1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="KF1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="KG1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="KH1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="KI1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="KJ1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="KK1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="KL1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="KM1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="KN1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="KO1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="KP1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="KQ1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="KR1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="KS1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="KT1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="KU1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="KV1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="KW1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="KX1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="KY1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="KZ1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="LA1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="LB1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="LC1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="LD1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="LE1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="LF1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="LG1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="LH1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="LI1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="LJ1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="LK1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="LL1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="LM1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="LN1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="LO1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="LP1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="LQ1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="LR1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="LS1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="LT1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="LU1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="LV1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="LW1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="LX1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="LY1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="LZ1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="MA1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="MB1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="MC1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="MD1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="ME1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="MF1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="MG1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="MH1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="MI1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="MJ1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="MK1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="ML1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="MM1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="MN1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="MO1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="MP1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="MQ1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="MR1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="MS1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="MT1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="MU1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="MV1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="MW1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="MX1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="MY1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="MZ1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="NA1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="NB1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="NC1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="ND1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="NE1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="NF1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="NG1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="NH1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="NI1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="NJ1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="NK1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="NL1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="NM1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="NN1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="NO1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="NP1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="NQ1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="NR1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="NS1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="NT1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="NU1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="NV1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="NW1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="NX1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="NY1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="NZ1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="OA1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="OB1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="OC1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="OD1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="OE1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="OF1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="OG1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="OH1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="OI1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="OJ1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="OK1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="OL1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="OM1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="ON1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="OO1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="OP1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="OQ1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="OR1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="OS1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="OT1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="OU1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="OV1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="OW1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="OX1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="OY1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="OZ1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="PA1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="PB1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="PC1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="PD1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="PE1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="PF1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="PG1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="PH1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="PI1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="PJ1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="PK1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="PL1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="PM1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="PN1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="PO1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="PP1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="PQ1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="PR1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="PS1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="PT1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="PU1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="PV1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="PW1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="PX1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="PY1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="PZ1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="QA1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="QB1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="QC1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="QD1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="QE1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="QF1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="QG1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="QH1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="QI1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="QJ1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="QK1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="QL1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="QM1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="QN1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="QO1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="QP1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="QQ1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="QR1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="QS1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="QT1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="QU1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="QV1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="QW1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="QX1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="QY1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="QZ1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="RA1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="RB1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="RC1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="RD1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="RE1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="RF1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="RG1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="RH1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="RI1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="RJ1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="RK1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="RL1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="RM1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="RN1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="RO1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="RP1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="RQ1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="RR1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="RS1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="RT1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="RU1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="RV1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="RW1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="RX1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="RY1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="RZ1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="SA1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="SB1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="SC1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="SD1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="SE1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="SF1" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0B2DE2-F708-BF4D-B4A2-DDBB258C1339}">
+  <dimension ref="A1:A17466"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1">
+      <c r="A841" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1">
+      <c r="A876" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1">
+      <c r="A911" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1">
+      <c r="A946" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1">
+      <c r="A981" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1">
+      <c r="A1016" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1">
+      <c r="A1051" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1">
+      <c r="A1086" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1">
+      <c r="A1121" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1">
+      <c r="A1156" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1">
+      <c r="A1191" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1">
+      <c r="A1226" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1">
+      <c r="A1261" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1">
+      <c r="A1296" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:1">
+      <c r="A1331" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:1">
+      <c r="A1366" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:1">
+      <c r="A1401" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:1">
+      <c r="A1436" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:1">
+      <c r="A1471" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:1">
+      <c r="A1506" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:1">
+      <c r="A1541" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:1">
+      <c r="A1576" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:1">
+      <c r="A1611" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:1">
+      <c r="A1646" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:1">
+      <c r="A1681" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:1">
+      <c r="A1716" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:1">
+      <c r="A1751" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:1">
+      <c r="A1786" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:1">
+      <c r="A1821" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:1">
+      <c r="A1856" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:1">
+      <c r="A1891" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:1">
+      <c r="A1926" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:1">
+      <c r="A1961" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:1">
+      <c r="A1996" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:1">
+      <c r="A2031" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:1">
+      <c r="A2066" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:1">
+      <c r="A2101" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:1">
+      <c r="A2136" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:1">
+      <c r="A2171" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:1">
+      <c r="A2206" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:1">
+      <c r="A2241" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:1">
+      <c r="A2276" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:1">
+      <c r="A2311" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:1">
+      <c r="A2346" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:1">
+      <c r="A2381" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:1">
+      <c r="A2416" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:1">
+      <c r="A2451" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:1">
+      <c r="A2486" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:1">
+      <c r="A2521" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:1">
+      <c r="A2556" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:1">
+      <c r="A2591" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:1">
+      <c r="A2626" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:1">
+      <c r="A2661" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:1">
+      <c r="A2696" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:1">
+      <c r="A2731" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:1">
+      <c r="A2766" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:1">
+      <c r="A2801" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:1">
+      <c r="A2836" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:1">
+      <c r="A2871" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:1">
+      <c r="A2906" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:1">
+      <c r="A2941" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:1">
+      <c r="A2976" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:1">
+      <c r="A3011" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:1">
+      <c r="A3046" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:1">
+      <c r="A3081" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:1">
+      <c r="A3116" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:1">
+      <c r="A3151" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:1">
+      <c r="A3186" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="3221" spans="1:1">
+      <c r="A3221" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="3256" spans="1:1">
+      <c r="A3256" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="3291" spans="1:1">
+      <c r="A3291" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:1">
+      <c r="A3326" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="3361" spans="1:1">
+      <c r="A3361" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="3396" spans="1:1">
+      <c r="A3396" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="3431" spans="1:1">
+      <c r="A3431" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:1">
+      <c r="A3466" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:1">
+      <c r="A3501" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="3536" spans="1:1">
+      <c r="A3536" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="3571" spans="1:1">
+      <c r="A3571" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:1">
+      <c r="A3606" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="3641" spans="1:1">
+      <c r="A3641" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="3676" spans="1:1">
+      <c r="A3676" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="3711" spans="1:1">
+      <c r="A3711" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="3746" spans="1:1">
+      <c r="A3746" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="3781" spans="1:1">
+      <c r="A3781" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="3816" spans="1:1">
+      <c r="A3816" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:1">
+      <c r="A3851" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="3886" spans="1:1">
+      <c r="A3886" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="3921" spans="1:1">
+      <c r="A3921" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="3956" spans="1:1">
+      <c r="A3956" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="3991" spans="1:1">
+      <c r="A3991" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="4026" spans="1:1">
+      <c r="A4026" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="4061" spans="1:1">
+      <c r="A4061" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="4096" spans="1:1">
+      <c r="A4096" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="4131" spans="1:1">
+      <c r="A4131" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="4166" spans="1:1">
+      <c r="A4166" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="4201" spans="1:1">
+      <c r="A4201" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="4236" spans="1:1">
+      <c r="A4236" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:1">
+      <c r="A4271" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="4306" spans="1:1">
+      <c r="A4306" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:1">
+      <c r="A4341" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:1">
+      <c r="A4376" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="4411" spans="1:1">
+      <c r="A4411" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="4446" spans="1:1">
+      <c r="A4446" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="4481" spans="1:1">
+      <c r="A4481" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="4516" spans="1:1">
+      <c r="A4516" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="4551" spans="1:1">
+      <c r="A4551" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="4586" spans="1:1">
+      <c r="A4586" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="4621" spans="1:1">
+      <c r="A4621" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="4656" spans="1:1">
+      <c r="A4656" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="4691" spans="1:1">
+      <c r="A4691" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="4726" spans="1:1">
+      <c r="A4726" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="4761" spans="1:1">
+      <c r="A4761" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="4796" spans="1:1">
+      <c r="A4796" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="4831" spans="1:1">
+      <c r="A4831" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="4866" spans="1:1">
+      <c r="A4866" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="4901" spans="1:1">
+      <c r="A4901" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="4936" spans="1:1">
+      <c r="A4936" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="4971" spans="1:1">
+      <c r="A4971" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="5006" spans="1:1">
+      <c r="A5006" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="5041" spans="1:1">
+      <c r="A5041" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="5076" spans="1:1">
+      <c r="A5076" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="5111" spans="1:1">
+      <c r="A5111" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="5146" spans="1:1">
+      <c r="A5146" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="5181" spans="1:1">
+      <c r="A5181" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="5216" spans="1:1">
+      <c r="A5216" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="5251" spans="1:1">
+      <c r="A5251" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="5286" spans="1:1">
+      <c r="A5286" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="5321" spans="1:1">
+      <c r="A5321" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="5356" spans="1:1">
+      <c r="A5356" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="5391" spans="1:1">
+      <c r="A5391" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="5426" spans="1:1">
+      <c r="A5426" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="5461" spans="1:1">
+      <c r="A5461" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="5496" spans="1:1">
+      <c r="A5496" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="5531" spans="1:1">
+      <c r="A5531" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="5566" spans="1:1">
+      <c r="A5566" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="5601" spans="1:1">
+      <c r="A5601" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="5636" spans="1:1">
+      <c r="A5636" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="5671" spans="1:1">
+      <c r="A5671" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="5706" spans="1:1">
+      <c r="A5706" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="5741" spans="1:1">
+      <c r="A5741" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="5776" spans="1:1">
+      <c r="A5776" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="5811" spans="1:1">
+      <c r="A5811" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="5846" spans="1:1">
+      <c r="A5846" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="5881" spans="1:1">
+      <c r="A5881" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="5916" spans="1:1">
+      <c r="A5916" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="5951" spans="1:1">
+      <c r="A5951" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="5986" spans="1:1">
+      <c r="A5986" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="6021" spans="1:1">
+      <c r="A6021" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="6056" spans="1:1">
+      <c r="A6056" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="6091" spans="1:1">
+      <c r="A6091" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="6126" spans="1:1">
+      <c r="A6126" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="6161" spans="1:1">
+      <c r="A6161" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="6196" spans="1:1">
+      <c r="A6196" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="6231" spans="1:1">
+      <c r="A6231" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="6266" spans="1:1">
+      <c r="A6266" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="6301" spans="1:1">
+      <c r="A6301" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="6336" spans="1:1">
+      <c r="A6336" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="6371" spans="1:1">
+      <c r="A6371" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="6406" spans="1:1">
+      <c r="A6406" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="6441" spans="1:1">
+      <c r="A6441" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="6476" spans="1:1">
+      <c r="A6476" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="6511" spans="1:1">
+      <c r="A6511" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="6546" spans="1:1">
+      <c r="A6546" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6581" spans="1:1">
+      <c r="A6581" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="6616" spans="1:1">
+      <c r="A6616" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="6651" spans="1:1">
+      <c r="A6651" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="6686" spans="1:1">
+      <c r="A6686" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="6721" spans="1:1">
+      <c r="A6721" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="6756" spans="1:1">
+      <c r="A6756" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="6791" spans="1:1">
+      <c r="A6791" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="6826" spans="1:1">
+      <c r="A6826" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="6861" spans="1:1">
+      <c r="A6861" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="6896" spans="1:1">
+      <c r="A6896" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="6931" spans="1:1">
+      <c r="A6931" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="6966" spans="1:1">
+      <c r="A6966" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="7001" spans="1:1">
+      <c r="A7001" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="7036" spans="1:1">
+      <c r="A7036" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="7071" spans="1:1">
+      <c r="A7071" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="7106" spans="1:1">
+      <c r="A7106" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="7141" spans="1:1">
+      <c r="A7141" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="7176" spans="1:1">
+      <c r="A7176" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="7211" spans="1:1">
+      <c r="A7211" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="7246" spans="1:1">
+      <c r="A7246" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="7281" spans="1:1">
+      <c r="A7281" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="7316" spans="1:1">
+      <c r="A7316" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="7351" spans="1:1">
+      <c r="A7351" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="7386" spans="1:1">
+      <c r="A7386" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="7421" spans="1:1">
+      <c r="A7421" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="7456" spans="1:1">
+      <c r="A7456" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="7491" spans="1:1">
+      <c r="A7491" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="7526" spans="1:1">
+      <c r="A7526" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="7561" spans="1:1">
+      <c r="A7561" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="7596" spans="1:1">
+      <c r="A7596" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="7631" spans="1:1">
+      <c r="A7631" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="7666" spans="1:1">
+      <c r="A7666" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="7701" spans="1:1">
+      <c r="A7701" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="7736" spans="1:1">
+      <c r="A7736" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="7771" spans="1:1">
+      <c r="A7771" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="7806" spans="1:1">
+      <c r="A7806" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="7841" spans="1:1">
+      <c r="A7841" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="7876" spans="1:1">
+      <c r="A7876" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="7911" spans="1:1">
+      <c r="A7911" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="7946" spans="1:1">
+      <c r="A7946" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="7981" spans="1:1">
+      <c r="A7981" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="8016" spans="1:1">
+      <c r="A8016" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="8051" spans="1:1">
+      <c r="A8051" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="8086" spans="1:1">
+      <c r="A8086" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="8121" spans="1:1">
+      <c r="A8121" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="8156" spans="1:1">
+      <c r="A8156" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="8191" spans="1:1">
+      <c r="A8191" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="8226" spans="1:1">
+      <c r="A8226" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="8261" spans="1:1">
+      <c r="A8261" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="8296" spans="1:1">
+      <c r="A8296" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="8331" spans="1:1">
+      <c r="A8331" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="8366" spans="1:1">
+      <c r="A8366" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="8401" spans="1:1">
+      <c r="A8401" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="8436" spans="1:1">
+      <c r="A8436" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="8471" spans="1:1">
+      <c r="A8471" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="8506" spans="1:1">
+      <c r="A8506" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="8541" spans="1:1">
+      <c r="A8541" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="8576" spans="1:1">
+      <c r="A8576" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="8611" spans="1:1">
+      <c r="A8611" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="8646" spans="1:1">
+      <c r="A8646" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="8681" spans="1:1">
+      <c r="A8681" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="8716" spans="1:1">
+      <c r="A8716" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="8751" spans="1:1">
+      <c r="A8751" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="8786" spans="1:1">
+      <c r="A8786" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="8821" spans="1:1">
+      <c r="A8821" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="8856" spans="1:1">
+      <c r="A8856" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="8891" spans="1:1">
+      <c r="A8891" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="8926" spans="1:1">
+      <c r="A8926" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="8961" spans="1:1">
+      <c r="A8961" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="8996" spans="1:1">
+      <c r="A8996" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="9031" spans="1:1">
+      <c r="A9031" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="9066" spans="1:1">
+      <c r="A9066" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="9101" spans="1:1">
+      <c r="A9101" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="9136" spans="1:1">
+      <c r="A9136" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="9171" spans="1:1">
+      <c r="A9171" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="9206" spans="1:1">
+      <c r="A9206" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="9241" spans="1:1">
+      <c r="A9241" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="9276" spans="1:1">
+      <c r="A9276" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="9311" spans="1:1">
+      <c r="A9311" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="9346" spans="1:1">
+      <c r="A9346" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="9381" spans="1:1">
+      <c r="A9381" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="9416" spans="1:1">
+      <c r="A9416" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="9451" spans="1:1">
+      <c r="A9451" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="9486" spans="1:1">
+      <c r="A9486" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="9521" spans="1:1">
+      <c r="A9521" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="9556" spans="1:1">
+      <c r="A9556" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="9591" spans="1:1">
+      <c r="A9591" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="9626" spans="1:1">
+      <c r="A9626" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="9661" spans="1:1">
+      <c r="A9661" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="9696" spans="1:1">
+      <c r="A9696" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="9731" spans="1:1">
+      <c r="A9731" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="9766" spans="1:1">
+      <c r="A9766" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="9801" spans="1:1">
+      <c r="A9801" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="9836" spans="1:1">
+      <c r="A9836" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="9871" spans="1:1">
+      <c r="A9871" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="9906" spans="1:1">
+      <c r="A9906" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="9941" spans="1:1">
+      <c r="A9941" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="9976" spans="1:1">
+      <c r="A9976" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="10011" spans="1:1">
+      <c r="A10011" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="10046" spans="1:1">
+      <c r="A10046" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="10081" spans="1:1">
+      <c r="A10081" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="10116" spans="1:1">
+      <c r="A10116" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="10151" spans="1:1">
+      <c r="A10151" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="10186" spans="1:1">
+      <c r="A10186" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="10221" spans="1:1">
+      <c r="A10221" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="10256" spans="1:1">
+      <c r="A10256" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="10291" spans="1:1">
+      <c r="A10291" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="10326" spans="1:1">
+      <c r="A10326" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="10361" spans="1:1">
+      <c r="A10361" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="10396" spans="1:1">
+      <c r="A10396" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="10431" spans="1:1">
+      <c r="A10431" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="10466" spans="1:1">
+      <c r="A10466" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="10501" spans="1:1">
+      <c r="A10501" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="10536" spans="1:1">
+      <c r="A10536" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="10571" spans="1:1">
+      <c r="A10571" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="10606" spans="1:1">
+      <c r="A10606" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="10641" spans="1:1">
+      <c r="A10641" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="10676" spans="1:1">
+      <c r="A10676" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="10711" spans="1:1">
+      <c r="A10711" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="10746" spans="1:1">
+      <c r="A10746" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="10781" spans="1:1">
+      <c r="A10781" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="10816" spans="1:1">
+      <c r="A10816" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="10851" spans="1:1">
+      <c r="A10851" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="10886" spans="1:1">
+      <c r="A10886" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="10921" spans="1:1">
+      <c r="A10921" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="10956" spans="1:1">
+      <c r="A10956" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="10991" spans="1:1">
+      <c r="A10991" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="11026" spans="1:1">
+      <c r="A11026" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="11061" spans="1:1">
+      <c r="A11061" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="11096" spans="1:1">
+      <c r="A11096" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="11131" spans="1:1">
+      <c r="A11131" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="11166" spans="1:1">
+      <c r="A11166" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="11201" spans="1:1">
+      <c r="A11201" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="11236" spans="1:1">
+      <c r="A11236" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="11271" spans="1:1">
+      <c r="A11271" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="11306" spans="1:1">
+      <c r="A11306" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="11341" spans="1:1">
+      <c r="A11341" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="11376" spans="1:1">
+      <c r="A11376" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="11411" spans="1:1">
+      <c r="A11411" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="11446" spans="1:1">
+      <c r="A11446" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="11481" spans="1:1">
+      <c r="A11481" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="11516" spans="1:1">
+      <c r="A11516" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="11551" spans="1:1">
+      <c r="A11551" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="11586" spans="1:1">
+      <c r="A11586" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="11621" spans="1:1">
+      <c r="A11621" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="11656" spans="1:1">
+      <c r="A11656" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="11691" spans="1:1">
+      <c r="A11691" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="11726" spans="1:1">
+      <c r="A11726" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="11761" spans="1:1">
+      <c r="A11761" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="11796" spans="1:1">
+      <c r="A11796" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="11831" spans="1:1">
+      <c r="A11831" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="11866" spans="1:1">
+      <c r="A11866" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="11901" spans="1:1">
+      <c r="A11901" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="11936" spans="1:1">
+      <c r="A11936" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="11971" spans="1:1">
+      <c r="A11971" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="12006" spans="1:1">
+      <c r="A12006" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="12041" spans="1:1">
+      <c r="A12041" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="12076" spans="1:1">
+      <c r="A12076" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="12111" spans="1:1">
+      <c r="A12111" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="12146" spans="1:1">
+      <c r="A12146" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="12181" spans="1:1">
+      <c r="A12181" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="12216" spans="1:1">
+      <c r="A12216" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="12251" spans="1:1">
+      <c r="A12251" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="12286" spans="1:1">
+      <c r="A12286" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="12321" spans="1:1">
+      <c r="A12321" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="12356" spans="1:1">
+      <c r="A12356" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="12391" spans="1:1">
+      <c r="A12391" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="12426" spans="1:1">
+      <c r="A12426" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="12461" spans="1:1">
+      <c r="A12461" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="12496" spans="1:1">
+      <c r="A12496" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="12531" spans="1:1">
+      <c r="A12531" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="12566" spans="1:1">
+      <c r="A12566" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="12601" spans="1:1">
+      <c r="A12601" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="12636" spans="1:1">
+      <c r="A12636" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="12671" spans="1:1">
+      <c r="A12671" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="12706" spans="1:1">
+      <c r="A12706" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="12741" spans="1:1">
+      <c r="A12741" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="12776" spans="1:1">
+      <c r="A12776" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="12811" spans="1:1">
+      <c r="A12811" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="12846" spans="1:1">
+      <c r="A12846" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="12881" spans="1:1">
+      <c r="A12881" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="12916" spans="1:1">
+      <c r="A12916" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="12951" spans="1:1">
+      <c r="A12951" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="12986" spans="1:1">
+      <c r="A12986" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="13021" spans="1:1">
+      <c r="A13021" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="13056" spans="1:1">
+      <c r="A13056" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="13091" spans="1:1">
+      <c r="A13091" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="13126" spans="1:1">
+      <c r="A13126" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="13161" spans="1:1">
+      <c r="A13161" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="13196" spans="1:1">
+      <c r="A13196" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="13231" spans="1:1">
+      <c r="A13231" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="13266" spans="1:1">
+      <c r="A13266" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="13301" spans="1:1">
+      <c r="A13301" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="13336" spans="1:1">
+      <c r="A13336" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="13371" spans="1:1">
+      <c r="A13371" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="13406" spans="1:1">
+      <c r="A13406" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="13441" spans="1:1">
+      <c r="A13441" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="13476" spans="1:1">
+      <c r="A13476" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="13511" spans="1:1">
+      <c r="A13511" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="13546" spans="1:1">
+      <c r="A13546" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="13581" spans="1:1">
+      <c r="A13581" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="13616" spans="1:1">
+      <c r="A13616" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="13651" spans="1:1">
+      <c r="A13651" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="13686" spans="1:1">
+      <c r="A13686" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="13721" spans="1:1">
+      <c r="A13721" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="13756" spans="1:1">
+      <c r="A13756" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="13791" spans="1:1">
+      <c r="A13791" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="13826" spans="1:1">
+      <c r="A13826" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="13861" spans="1:1">
+      <c r="A13861" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="13896" spans="1:1">
+      <c r="A13896" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="13931" spans="1:1">
+      <c r="A13931" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="13966" spans="1:1">
+      <c r="A13966" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="14001" spans="1:1">
+      <c r="A14001" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="14036" spans="1:1">
+      <c r="A14036" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="14071" spans="1:1">
+      <c r="A14071" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="14106" spans="1:1">
+      <c r="A14106" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="14141" spans="1:1">
+      <c r="A14141" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="14176" spans="1:1">
+      <c r="A14176" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="14211" spans="1:1">
+      <c r="A14211" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="14246" spans="1:1">
+      <c r="A14246" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="14281" spans="1:1">
+      <c r="A14281" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="14316" spans="1:1">
+      <c r="A14316" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="14351" spans="1:1">
+      <c r="A14351" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="14386" spans="1:1">
+      <c r="A14386" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="14421" spans="1:1">
+      <c r="A14421" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="14456" spans="1:1">
+      <c r="A14456" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="14491" spans="1:1">
+      <c r="A14491" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="14526" spans="1:1">
+      <c r="A14526" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="14561" spans="1:1">
+      <c r="A14561" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="14596" spans="1:1">
+      <c r="A14596" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="14631" spans="1:1">
+      <c r="A14631" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="14666" spans="1:1">
+      <c r="A14666" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="14701" spans="1:1">
+      <c r="A14701" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="14736" spans="1:1">
+      <c r="A14736" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="14771" spans="1:1">
+      <c r="A14771" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="14806" spans="1:1">
+      <c r="A14806" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="14841" spans="1:1">
+      <c r="A14841" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="14876" spans="1:1">
+      <c r="A14876" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="14911" spans="1:1">
+      <c r="A14911" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="14946" spans="1:1">
+      <c r="A14946" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="14981" spans="1:1">
+      <c r="A14981" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="15016" spans="1:1">
+      <c r="A15016" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="15051" spans="1:1">
+      <c r="A15051" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="15086" spans="1:1">
+      <c r="A15086" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="15121" spans="1:1">
+      <c r="A15121" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="15156" spans="1:1">
+      <c r="A15156" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="15191" spans="1:1">
+      <c r="A15191" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="15226" spans="1:1">
+      <c r="A15226" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="15261" spans="1:1">
+      <c r="A15261" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="15296" spans="1:1">
+      <c r="A15296" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="15331" spans="1:1">
+      <c r="A15331" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="15366" spans="1:1">
+      <c r="A15366" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="15401" spans="1:1">
+      <c r="A15401" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="15436" spans="1:1">
+      <c r="A15436" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="15471" spans="1:1">
+      <c r="A15471" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="15506" spans="1:1">
+      <c r="A15506" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="15541" spans="1:1">
+      <c r="A15541" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="15576" spans="1:1">
+      <c r="A15576" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="15611" spans="1:1">
+      <c r="A15611" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="15646" spans="1:1">
+      <c r="A15646" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="15681" spans="1:1">
+      <c r="A15681" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="15716" spans="1:1">
+      <c r="A15716" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="15751" spans="1:1">
+      <c r="A15751" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="15786" spans="1:1">
+      <c r="A15786" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="15821" spans="1:1">
+      <c r="A15821" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="15856" spans="1:1">
+      <c r="A15856" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="15891" spans="1:1">
+      <c r="A15891" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="15926" spans="1:1">
+      <c r="A15926" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="15961" spans="1:1">
+      <c r="A15961" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="15996" spans="1:1">
+      <c r="A15996" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="16031" spans="1:1">
+      <c r="A16031" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="16066" spans="1:1">
+      <c r="A16066" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="16101" spans="1:1">
+      <c r="A16101" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="16136" spans="1:1">
+      <c r="A16136" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="16171" spans="1:1">
+      <c r="A16171" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="16206" spans="1:1">
+      <c r="A16206" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="16241" spans="1:1">
+      <c r="A16241" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="16276" spans="1:1">
+      <c r="A16276" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="16311" spans="1:1">
+      <c r="A16311" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="16346" spans="1:1">
+      <c r="A16346" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="16381" spans="1:1">
+      <c r="A16381" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="16416" spans="1:1">
+      <c r="A16416" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="16451" spans="1:1">
+      <c r="A16451" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="16486" spans="1:1">
+      <c r="A16486" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="16521" spans="1:1">
+      <c r="A16521" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="16556" spans="1:1">
+      <c r="A16556" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="16591" spans="1:1">
+      <c r="A16591" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="16626" spans="1:1">
+      <c r="A16626" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="16661" spans="1:1">
+      <c r="A16661" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="16696" spans="1:1">
+      <c r="A16696" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="16731" spans="1:1">
+      <c r="A16731" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="16766" spans="1:1">
+      <c r="A16766" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="16801" spans="1:1">
+      <c r="A16801" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="16836" spans="1:1">
+      <c r="A16836" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="16871" spans="1:1">
+      <c r="A16871" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="16906" spans="1:1">
+      <c r="A16906" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="16941" spans="1:1">
+      <c r="A16941" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="16976" spans="1:1">
+      <c r="A16976" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="17011" spans="1:1">
+      <c r="A17011" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="17046" spans="1:1">
+      <c r="A17046" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17081" spans="1:1">
+      <c r="A17081" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="17116" spans="1:1">
+      <c r="A17116" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="17151" spans="1:1">
+      <c r="A17151" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="17186" spans="1:1">
+      <c r="A17186" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="17221" spans="1:1">
+      <c r="A17221" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="17256" spans="1:1">
+      <c r="A17256" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="17291" spans="1:1">
+      <c r="A17291" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="17326" spans="1:1">
+      <c r="A17326" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="17361" spans="1:1">
+      <c r="A17361" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="17396" spans="1:1">
+      <c r="A17396" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="17431" spans="1:1">
+      <c r="A17431" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="17466" spans="1:1">
+      <c r="A17466" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/symbol-02152019.xlsx
+++ b/data/symbol-02152019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaid.tashman/Documents/portfolio-optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FDBCD7-8495-2745-90BC-9AD60C2AB778}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FD6F7B-4BD1-5949-A834-E09B3F2F4827}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{5260FE8B-ADFF-D94A-BB15-C7A14AC29239}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{5260FE8B-ADFF-D94A-BB15-C7A14AC29239}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6516" uniqueCount="2014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7016" uniqueCount="2014">
   <si>
     <t>Symbol </t>
   </si>
@@ -41083,8 +41084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0B2DE2-F708-BF4D-B4A2-DDBB258C1339}">
   <dimension ref="A1:A17466"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -43595,4 +43596,2519 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BF532C-81F1-DC4E-BA1C-A623FD42A5A2}">
+  <dimension ref="A1:A24951"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A24951"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1">
+      <c r="A901" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1">
+      <c r="A951" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1">
+      <c r="A1001" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1">
+      <c r="A1051" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1">
+      <c r="A1101" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1">
+      <c r="A1151" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1">
+      <c r="A1201" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1">
+      <c r="A1251" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:1">
+      <c r="A1301" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:1">
+      <c r="A1351" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:1">
+      <c r="A1401" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:1">
+      <c r="A1451" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:1">
+      <c r="A1501" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:1">
+      <c r="A1551" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:1">
+      <c r="A1601" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:1">
+      <c r="A1651" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:1">
+      <c r="A1701" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:1">
+      <c r="A1751" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:1">
+      <c r="A1801" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:1">
+      <c r="A1851" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:1">
+      <c r="A1901" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:1">
+      <c r="A1951" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:1">
+      <c r="A2001" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:1">
+      <c r="A2051" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:1">
+      <c r="A2101" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:1">
+      <c r="A2151" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:1">
+      <c r="A2201" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:1">
+      <c r="A2251" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:1">
+      <c r="A2301" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:1">
+      <c r="A2351" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:1">
+      <c r="A2401" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:1">
+      <c r="A2451" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:1">
+      <c r="A2501" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:1">
+      <c r="A2551" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:1">
+      <c r="A2601" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:1">
+      <c r="A2651" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:1">
+      <c r="A2701" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:1">
+      <c r="A2751" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:1">
+      <c r="A2801" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:1">
+      <c r="A2851" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:1">
+      <c r="A2901" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:1">
+      <c r="A2951" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:1">
+      <c r="A3001" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:1">
+      <c r="A3051" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:1">
+      <c r="A3101" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:1">
+      <c r="A3151" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:1">
+      <c r="A3201" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:1">
+      <c r="A3251" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:1">
+      <c r="A3301" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="3351" spans="1:1">
+      <c r="A3351" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="3401" spans="1:1">
+      <c r="A3401" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="3451" spans="1:1">
+      <c r="A3451" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:1">
+      <c r="A3501" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:1">
+      <c r="A3551" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:1">
+      <c r="A3601" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="3651" spans="1:1">
+      <c r="A3651" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="3701" spans="1:1">
+      <c r="A3701" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="3751" spans="1:1">
+      <c r="A3751" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="3801" spans="1:1">
+      <c r="A3801" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:1">
+      <c r="A3851" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="3901" spans="1:1">
+      <c r="A3901" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="3951" spans="1:1">
+      <c r="A3951" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="4001" spans="1:1">
+      <c r="A4001" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="4051" spans="1:1">
+      <c r="A4051" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="4101" spans="1:1">
+      <c r="A4101" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="4151" spans="1:1">
+      <c r="A4151" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="4201" spans="1:1">
+      <c r="A4201" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="4251" spans="1:1">
+      <c r="A4251" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:1">
+      <c r="A4301" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="4351" spans="1:1">
+      <c r="A4351" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="4401" spans="1:1">
+      <c r="A4401" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="4451" spans="1:1">
+      <c r="A4451" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="4501" spans="1:1">
+      <c r="A4501" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="4551" spans="1:1">
+      <c r="A4551" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="4601" spans="1:1">
+      <c r="A4601" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="4651" spans="1:1">
+      <c r="A4651" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="4701" spans="1:1">
+      <c r="A4701" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="4751" spans="1:1">
+      <c r="A4751" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="4801" spans="1:1">
+      <c r="A4801" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="4851" spans="1:1">
+      <c r="A4851" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="4901" spans="1:1">
+      <c r="A4901" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="4951" spans="1:1">
+      <c r="A4951" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="5001" spans="1:1">
+      <c r="A5001" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="5051" spans="1:1">
+      <c r="A5051" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="5101" spans="1:1">
+      <c r="A5101" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="5151" spans="1:1">
+      <c r="A5151" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="5201" spans="1:1">
+      <c r="A5201" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="5251" spans="1:1">
+      <c r="A5251" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="5301" spans="1:1">
+      <c r="A5301" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="5351" spans="1:1">
+      <c r="A5351" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="5401" spans="1:1">
+      <c r="A5401" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="5451" spans="1:1">
+      <c r="A5451" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="5501" spans="1:1">
+      <c r="A5501" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="5551" spans="1:1">
+      <c r="A5551" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="5601" spans="1:1">
+      <c r="A5601" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="5651" spans="1:1">
+      <c r="A5651" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="5701" spans="1:1">
+      <c r="A5701" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="5751" spans="1:1">
+      <c r="A5751" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="5801" spans="1:1">
+      <c r="A5801" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="5851" spans="1:1">
+      <c r="A5851" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="5901" spans="1:1">
+      <c r="A5901" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="5951" spans="1:1">
+      <c r="A5951" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="6001" spans="1:1">
+      <c r="A6001" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="6051" spans="1:1">
+      <c r="A6051" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="6101" spans="1:1">
+      <c r="A6101" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="6151" spans="1:1">
+      <c r="A6151" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="6201" spans="1:1">
+      <c r="A6201" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="6251" spans="1:1">
+      <c r="A6251" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="6301" spans="1:1">
+      <c r="A6301" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="6351" spans="1:1">
+      <c r="A6351" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="6401" spans="1:1">
+      <c r="A6401" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="6451" spans="1:1">
+      <c r="A6451" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="6501" spans="1:1">
+      <c r="A6501" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="6551" spans="1:1">
+      <c r="A6551" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="6601" spans="1:1">
+      <c r="A6601" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="6651" spans="1:1">
+      <c r="A6651" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="6701" spans="1:1">
+      <c r="A6701" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="6751" spans="1:1">
+      <c r="A6751" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="6801" spans="1:1">
+      <c r="A6801" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="6851" spans="1:1">
+      <c r="A6851" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="6901" spans="1:1">
+      <c r="A6901" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="6951" spans="1:1">
+      <c r="A6951" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="7001" spans="1:1">
+      <c r="A7001" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="7051" spans="1:1">
+      <c r="A7051" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="7101" spans="1:1">
+      <c r="A7101" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="7151" spans="1:1">
+      <c r="A7151" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="7201" spans="1:1">
+      <c r="A7201" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="7251" spans="1:1">
+      <c r="A7251" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="7301" spans="1:1">
+      <c r="A7301" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="7351" spans="1:1">
+      <c r="A7351" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="7401" spans="1:1">
+      <c r="A7401" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="7451" spans="1:1">
+      <c r="A7451" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="7501" spans="1:1">
+      <c r="A7501" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="7551" spans="1:1">
+      <c r="A7551" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="7601" spans="1:1">
+      <c r="A7601" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="7651" spans="1:1">
+      <c r="A7651" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="7701" spans="1:1">
+      <c r="A7701" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="7751" spans="1:1">
+      <c r="A7751" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="7801" spans="1:1">
+      <c r="A7801" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="7851" spans="1:1">
+      <c r="A7851" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="7901" spans="1:1">
+      <c r="A7901" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="7951" spans="1:1">
+      <c r="A7951" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="8001" spans="1:1">
+      <c r="A8001" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="8051" spans="1:1">
+      <c r="A8051" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="8101" spans="1:1">
+      <c r="A8101" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="8151" spans="1:1">
+      <c r="A8151" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="8201" spans="1:1">
+      <c r="A8201" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="8251" spans="1:1">
+      <c r="A8251" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="8301" spans="1:1">
+      <c r="A8301" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="8351" spans="1:1">
+      <c r="A8351" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="8401" spans="1:1">
+      <c r="A8401" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="8451" spans="1:1">
+      <c r="A8451" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="8501" spans="1:1">
+      <c r="A8501" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="8551" spans="1:1">
+      <c r="A8551" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="8601" spans="1:1">
+      <c r="A8601" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="8651" spans="1:1">
+      <c r="A8651" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="8701" spans="1:1">
+      <c r="A8701" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="8751" spans="1:1">
+      <c r="A8751" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="8801" spans="1:1">
+      <c r="A8801" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="8851" spans="1:1">
+      <c r="A8851" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="8901" spans="1:1">
+      <c r="A8901" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="8951" spans="1:1">
+      <c r="A8951" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="9001" spans="1:1">
+      <c r="A9001" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="9051" spans="1:1">
+      <c r="A9051" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="9101" spans="1:1">
+      <c r="A9101" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="9151" spans="1:1">
+      <c r="A9151" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="9201" spans="1:1">
+      <c r="A9201" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="9251" spans="1:1">
+      <c r="A9251" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="9301" spans="1:1">
+      <c r="A9301" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="9351" spans="1:1">
+      <c r="A9351" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9401" spans="1:1">
+      <c r="A9401" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="9451" spans="1:1">
+      <c r="A9451" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="9501" spans="1:1">
+      <c r="A9501" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="9551" spans="1:1">
+      <c r="A9551" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="9601" spans="1:1">
+      <c r="A9601" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="9651" spans="1:1">
+      <c r="A9651" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="9701" spans="1:1">
+      <c r="A9701" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="9751" spans="1:1">
+      <c r="A9751" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="9801" spans="1:1">
+      <c r="A9801" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="9851" spans="1:1">
+      <c r="A9851" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="9901" spans="1:1">
+      <c r="A9901" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="9951" spans="1:1">
+      <c r="A9951" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="10001" spans="1:1">
+      <c r="A10001" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="10051" spans="1:1">
+      <c r="A10051" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="10101" spans="1:1">
+      <c r="A10101" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="10151" spans="1:1">
+      <c r="A10151" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="10201" spans="1:1">
+      <c r="A10201" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="10251" spans="1:1">
+      <c r="A10251" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="10301" spans="1:1">
+      <c r="A10301" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="10351" spans="1:1">
+      <c r="A10351" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="10401" spans="1:1">
+      <c r="A10401" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="10451" spans="1:1">
+      <c r="A10451" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="10501" spans="1:1">
+      <c r="A10501" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="10551" spans="1:1">
+      <c r="A10551" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="10601" spans="1:1">
+      <c r="A10601" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="10651" spans="1:1">
+      <c r="A10651" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="10701" spans="1:1">
+      <c r="A10701" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="10751" spans="1:1">
+      <c r="A10751" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="10801" spans="1:1">
+      <c r="A10801" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="10851" spans="1:1">
+      <c r="A10851" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="10901" spans="1:1">
+      <c r="A10901" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="10951" spans="1:1">
+      <c r="A10951" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="11001" spans="1:1">
+      <c r="A11001" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="11051" spans="1:1">
+      <c r="A11051" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="11101" spans="1:1">
+      <c r="A11101" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="11151" spans="1:1">
+      <c r="A11151" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="11201" spans="1:1">
+      <c r="A11201" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="11251" spans="1:1">
+      <c r="A11251" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="11301" spans="1:1">
+      <c r="A11301" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="11351" spans="1:1">
+      <c r="A11351" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="11401" spans="1:1">
+      <c r="A11401" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="11451" spans="1:1">
+      <c r="A11451" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="11501" spans="1:1">
+      <c r="A11501" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="11551" spans="1:1">
+      <c r="A11551" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="11601" spans="1:1">
+      <c r="A11601" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="11651" spans="1:1">
+      <c r="A11651" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="11701" spans="1:1">
+      <c r="A11701" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="11751" spans="1:1">
+      <c r="A11751" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="11801" spans="1:1">
+      <c r="A11801" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="11851" spans="1:1">
+      <c r="A11851" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="11901" spans="1:1">
+      <c r="A11901" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="11951" spans="1:1">
+      <c r="A11951" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="12001" spans="1:1">
+      <c r="A12001" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="12051" spans="1:1">
+      <c r="A12051" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="12101" spans="1:1">
+      <c r="A12101" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="12151" spans="1:1">
+      <c r="A12151" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="12201" spans="1:1">
+      <c r="A12201" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="12251" spans="1:1">
+      <c r="A12251" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="12301" spans="1:1">
+      <c r="A12301" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="12351" spans="1:1">
+      <c r="A12351" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="12401" spans="1:1">
+      <c r="A12401" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="12451" spans="1:1">
+      <c r="A12451" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="12501" spans="1:1">
+      <c r="A12501" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="12551" spans="1:1">
+      <c r="A12551" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="12601" spans="1:1">
+      <c r="A12601" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="12651" spans="1:1">
+      <c r="A12651" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="12701" spans="1:1">
+      <c r="A12701" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="12751" spans="1:1">
+      <c r="A12751" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="12801" spans="1:1">
+      <c r="A12801" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="12851" spans="1:1">
+      <c r="A12851" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="12901" spans="1:1">
+      <c r="A12901" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="12951" spans="1:1">
+      <c r="A12951" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="13001" spans="1:1">
+      <c r="A13001" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="13051" spans="1:1">
+      <c r="A13051" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="13101" spans="1:1">
+      <c r="A13101" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="13151" spans="1:1">
+      <c r="A13151" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="13201" spans="1:1">
+      <c r="A13201" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="13251" spans="1:1">
+      <c r="A13251" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="13301" spans="1:1">
+      <c r="A13301" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="13351" spans="1:1">
+      <c r="A13351" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="13401" spans="1:1">
+      <c r="A13401" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="13451" spans="1:1">
+      <c r="A13451" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="13501" spans="1:1">
+      <c r="A13501" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="13551" spans="1:1">
+      <c r="A13551" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="13601" spans="1:1">
+      <c r="A13601" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="13651" spans="1:1">
+      <c r="A13651" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="13701" spans="1:1">
+      <c r="A13701" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="13751" spans="1:1">
+      <c r="A13751" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="13801" spans="1:1">
+      <c r="A13801" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="13851" spans="1:1">
+      <c r="A13851" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="13901" spans="1:1">
+      <c r="A13901" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="13951" spans="1:1">
+      <c r="A13951" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="14001" spans="1:1">
+      <c r="A14001" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="14051" spans="1:1">
+      <c r="A14051" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="14101" spans="1:1">
+      <c r="A14101" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="14151" spans="1:1">
+      <c r="A14151" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="14201" spans="1:1">
+      <c r="A14201" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="14251" spans="1:1">
+      <c r="A14251" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="14301" spans="1:1">
+      <c r="A14301" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="14351" spans="1:1">
+      <c r="A14351" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="14401" spans="1:1">
+      <c r="A14401" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="14451" spans="1:1">
+      <c r="A14451" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="14501" spans="1:1">
+      <c r="A14501" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="14551" spans="1:1">
+      <c r="A14551" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="14601" spans="1:1">
+      <c r="A14601" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="14651" spans="1:1">
+      <c r="A14651" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="14701" spans="1:1">
+      <c r="A14701" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="14751" spans="1:1">
+      <c r="A14751" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="14801" spans="1:1">
+      <c r="A14801" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="14851" spans="1:1">
+      <c r="A14851" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="14901" spans="1:1">
+      <c r="A14901" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="14951" spans="1:1">
+      <c r="A14951" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="15001" spans="1:1">
+      <c r="A15001" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="15051" spans="1:1">
+      <c r="A15051" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="15101" spans="1:1">
+      <c r="A15101" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="15151" spans="1:1">
+      <c r="A15151" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="15201" spans="1:1">
+      <c r="A15201" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="15251" spans="1:1">
+      <c r="A15251" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="15301" spans="1:1">
+      <c r="A15301" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="15351" spans="1:1">
+      <c r="A15351" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="15401" spans="1:1">
+      <c r="A15401" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="15451" spans="1:1">
+      <c r="A15451" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="15501" spans="1:1">
+      <c r="A15501" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="15551" spans="1:1">
+      <c r="A15551" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="15601" spans="1:1">
+      <c r="A15601" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="15651" spans="1:1">
+      <c r="A15651" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="15701" spans="1:1">
+      <c r="A15701" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="15751" spans="1:1">
+      <c r="A15751" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="15801" spans="1:1">
+      <c r="A15801" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="15851" spans="1:1">
+      <c r="A15851" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="15901" spans="1:1">
+      <c r="A15901" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="15951" spans="1:1">
+      <c r="A15951" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="16001" spans="1:1">
+      <c r="A16001" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="16051" spans="1:1">
+      <c r="A16051" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="16101" spans="1:1">
+      <c r="A16101" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="16151" spans="1:1">
+      <c r="A16151" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="16201" spans="1:1">
+      <c r="A16201" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="16251" spans="1:1">
+      <c r="A16251" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="16301" spans="1:1">
+      <c r="A16301" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="16351" spans="1:1">
+      <c r="A16351" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="16401" spans="1:1">
+      <c r="A16401" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="16451" spans="1:1">
+      <c r="A16451" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="16501" spans="1:1">
+      <c r="A16501" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="16551" spans="1:1">
+      <c r="A16551" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="16601" spans="1:1">
+      <c r="A16601" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="16651" spans="1:1">
+      <c r="A16651" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="16701" spans="1:1">
+      <c r="A16701" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="16751" spans="1:1">
+      <c r="A16751" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="16801" spans="1:1">
+      <c r="A16801" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="16851" spans="1:1">
+      <c r="A16851" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="16901" spans="1:1">
+      <c r="A16901" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="16951" spans="1:1">
+      <c r="A16951" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="17001" spans="1:1">
+      <c r="A17001" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="17051" spans="1:1">
+      <c r="A17051" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="17101" spans="1:1">
+      <c r="A17101" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="17151" spans="1:1">
+      <c r="A17151" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="17201" spans="1:1">
+      <c r="A17201" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="17251" spans="1:1">
+      <c r="A17251" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="17301" spans="1:1">
+      <c r="A17301" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="17351" spans="1:1">
+      <c r="A17351" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="17401" spans="1:1">
+      <c r="A17401" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="17451" spans="1:1">
+      <c r="A17451" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="17501" spans="1:1">
+      <c r="A17501" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="17551" spans="1:1">
+      <c r="A17551" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="17601" spans="1:1">
+      <c r="A17601" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="17651" spans="1:1">
+      <c r="A17651" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="17701" spans="1:1">
+      <c r="A17701" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="17751" spans="1:1">
+      <c r="A17751" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="17801" spans="1:1">
+      <c r="A17801" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="17851" spans="1:1">
+      <c r="A17851" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="17901" spans="1:1">
+      <c r="A17901" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="17951" spans="1:1">
+      <c r="A17951" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="18001" spans="1:1">
+      <c r="A18001" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="18051" spans="1:1">
+      <c r="A18051" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="18101" spans="1:1">
+      <c r="A18101" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="18151" spans="1:1">
+      <c r="A18151" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="18201" spans="1:1">
+      <c r="A18201" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="18251" spans="1:1">
+      <c r="A18251" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="18301" spans="1:1">
+      <c r="A18301" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="18351" spans="1:1">
+      <c r="A18351" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="18401" spans="1:1">
+      <c r="A18401" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="18451" spans="1:1">
+      <c r="A18451" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="18501" spans="1:1">
+      <c r="A18501" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="18551" spans="1:1">
+      <c r="A18551" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="18601" spans="1:1">
+      <c r="A18601" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="18651" spans="1:1">
+      <c r="A18651" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="18701" spans="1:1">
+      <c r="A18701" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="18751" spans="1:1">
+      <c r="A18751" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="18801" spans="1:1">
+      <c r="A18801" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="18851" spans="1:1">
+      <c r="A18851" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="18901" spans="1:1">
+      <c r="A18901" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="18951" spans="1:1">
+      <c r="A18951" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="19001" spans="1:1">
+      <c r="A19001" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="19051" spans="1:1">
+      <c r="A19051" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="19101" spans="1:1">
+      <c r="A19101" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="19151" spans="1:1">
+      <c r="A19151" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="19201" spans="1:1">
+      <c r="A19201" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="19251" spans="1:1">
+      <c r="A19251" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="19301" spans="1:1">
+      <c r="A19301" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="19351" spans="1:1">
+      <c r="A19351" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="19401" spans="1:1">
+      <c r="A19401" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="19451" spans="1:1">
+      <c r="A19451" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="19501" spans="1:1">
+      <c r="A19501" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="19551" spans="1:1">
+      <c r="A19551" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="19601" spans="1:1">
+      <c r="A19601" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="19651" spans="1:1">
+      <c r="A19651" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="19701" spans="1:1">
+      <c r="A19701" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="19751" spans="1:1">
+      <c r="A19751" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="19801" spans="1:1">
+      <c r="A19801" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="19851" spans="1:1">
+      <c r="A19851" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="19901" spans="1:1">
+      <c r="A19901" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="19951" spans="1:1">
+      <c r="A19951" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="20001" spans="1:1">
+      <c r="A20001" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="20051" spans="1:1">
+      <c r="A20051" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="20101" spans="1:1">
+      <c r="A20101" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="20151" spans="1:1">
+      <c r="A20151" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="20201" spans="1:1">
+      <c r="A20201" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="20251" spans="1:1">
+      <c r="A20251" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="20301" spans="1:1">
+      <c r="A20301" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="20351" spans="1:1">
+      <c r="A20351" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="20401" spans="1:1">
+      <c r="A20401" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="20451" spans="1:1">
+      <c r="A20451" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="20501" spans="1:1">
+      <c r="A20501" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="20551" spans="1:1">
+      <c r="A20551" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="20601" spans="1:1">
+      <c r="A20601" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="20651" spans="1:1">
+      <c r="A20651" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="20701" spans="1:1">
+      <c r="A20701" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="20751" spans="1:1">
+      <c r="A20751" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="20801" spans="1:1">
+      <c r="A20801" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="20851" spans="1:1">
+      <c r="A20851" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="20901" spans="1:1">
+      <c r="A20901" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="20951" spans="1:1">
+      <c r="A20951" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="21001" spans="1:1">
+      <c r="A21001" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="21051" spans="1:1">
+      <c r="A21051" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="21101" spans="1:1">
+      <c r="A21101" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="21151" spans="1:1">
+      <c r="A21151" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="21201" spans="1:1">
+      <c r="A21201" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="21251" spans="1:1">
+      <c r="A21251" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="21301" spans="1:1">
+      <c r="A21301" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="21351" spans="1:1">
+      <c r="A21351" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="21401" spans="1:1">
+      <c r="A21401" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="21451" spans="1:1">
+      <c r="A21451" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="21501" spans="1:1">
+      <c r="A21501" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="21551" spans="1:1">
+      <c r="A21551" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="21601" spans="1:1">
+      <c r="A21601" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="21651" spans="1:1">
+      <c r="A21651" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="21701" spans="1:1">
+      <c r="A21701" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="21751" spans="1:1">
+      <c r="A21751" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="21801" spans="1:1">
+      <c r="A21801" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="21851" spans="1:1">
+      <c r="A21851" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="21901" spans="1:1">
+      <c r="A21901" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="21951" spans="1:1">
+      <c r="A21951" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="22001" spans="1:1">
+      <c r="A22001" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="22051" spans="1:1">
+      <c r="A22051" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="22101" spans="1:1">
+      <c r="A22101" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="22151" spans="1:1">
+      <c r="A22151" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="22201" spans="1:1">
+      <c r="A22201" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="22251" spans="1:1">
+      <c r="A22251" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="22301" spans="1:1">
+      <c r="A22301" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="22351" spans="1:1">
+      <c r="A22351" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="22401" spans="1:1">
+      <c r="A22401" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="22451" spans="1:1">
+      <c r="A22451" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="22501" spans="1:1">
+      <c r="A22501" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="22551" spans="1:1">
+      <c r="A22551" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="22601" spans="1:1">
+      <c r="A22601" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="22651" spans="1:1">
+      <c r="A22651" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="22701" spans="1:1">
+      <c r="A22701" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="22751" spans="1:1">
+      <c r="A22751" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="22801" spans="1:1">
+      <c r="A22801" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="22851" spans="1:1">
+      <c r="A22851" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="22901" spans="1:1">
+      <c r="A22901" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="22951" spans="1:1">
+      <c r="A22951" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="23001" spans="1:1">
+      <c r="A23001" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="23051" spans="1:1">
+      <c r="A23051" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="23101" spans="1:1">
+      <c r="A23101" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="23151" spans="1:1">
+      <c r="A23151" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="23201" spans="1:1">
+      <c r="A23201" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="23251" spans="1:1">
+      <c r="A23251" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="23301" spans="1:1">
+      <c r="A23301" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="23351" spans="1:1">
+      <c r="A23351" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="23401" spans="1:1">
+      <c r="A23401" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="23451" spans="1:1">
+      <c r="A23451" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="23501" spans="1:1">
+      <c r="A23501" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="23551" spans="1:1">
+      <c r="A23551" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="23601" spans="1:1">
+      <c r="A23601" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="23651" spans="1:1">
+      <c r="A23651" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="23701" spans="1:1">
+      <c r="A23701" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="23751" spans="1:1">
+      <c r="A23751" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="23801" spans="1:1">
+      <c r="A23801" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="23851" spans="1:1">
+      <c r="A23851" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="23901" spans="1:1">
+      <c r="A23901" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="23951" spans="1:1">
+      <c r="A23951" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="24001" spans="1:1">
+      <c r="A24001" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="24051" spans="1:1">
+      <c r="A24051" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="24101" spans="1:1">
+      <c r="A24101" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="24151" spans="1:1">
+      <c r="A24151" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="24201" spans="1:1">
+      <c r="A24201" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="24251" spans="1:1">
+      <c r="A24251" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="24301" spans="1:1">
+      <c r="A24301" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="24351" spans="1:1">
+      <c r="A24351" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24401" spans="1:1">
+      <c r="A24401" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="24451" spans="1:1">
+      <c r="A24451" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="24501" spans="1:1">
+      <c r="A24501" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="24551" spans="1:1">
+      <c r="A24551" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="24601" spans="1:1">
+      <c r="A24601" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="24651" spans="1:1">
+      <c r="A24651" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="24701" spans="1:1">
+      <c r="A24701" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="24751" spans="1:1">
+      <c r="A24751" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="24801" spans="1:1">
+      <c r="A24801" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="24851" spans="1:1">
+      <c r="A24851" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="24901" spans="1:1">
+      <c r="A24901" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="24951" spans="1:1">
+      <c r="A24951" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/symbol-02152019.xlsx
+++ b/data/symbol-02152019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaid.tashman/Documents/portfolio-optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FD6F7B-4BD1-5949-A834-E09B3F2F4827}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6945B243-3A22-6248-BDC0-04F6B76A7A55}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{5260FE8B-ADFF-D94A-BB15-C7A14AC29239}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="7" xr2:uid="{5260FE8B-ADFF-D94A-BB15-C7A14AC29239}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7016" uniqueCount="2014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7516" uniqueCount="2014">
   <si>
     <t>Symbol </t>
   </si>
@@ -43602,7 +43603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BF532C-81F1-DC4E-BA1C-A623FD42A5A2}">
   <dimension ref="A1:A24951"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A24951"/>
     </sheetView>
   </sheetViews>
@@ -46111,4 +46112,2519 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96085E26-9F6A-1646-9AF3-2C568B4468DC}">
+  <dimension ref="A1:A49901"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A49901"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1">
+      <c r="A901" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1">
+      <c r="A1001" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1">
+      <c r="A1101" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1">
+      <c r="A1201" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:1">
+      <c r="A1301" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:1">
+      <c r="A1401" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:1">
+      <c r="A1501" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:1">
+      <c r="A1601" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:1">
+      <c r="A1701" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:1">
+      <c r="A1801" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:1">
+      <c r="A1901" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:1">
+      <c r="A2001" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:1">
+      <c r="A2101" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:1">
+      <c r="A2201" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:1">
+      <c r="A2301" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:1">
+      <c r="A2401" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:1">
+      <c r="A2501" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:1">
+      <c r="A2601" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:1">
+      <c r="A2701" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:1">
+      <c r="A2801" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:1">
+      <c r="A2901" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:1">
+      <c r="A3001" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:1">
+      <c r="A3101" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:1">
+      <c r="A3201" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:1">
+      <c r="A3301" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="3401" spans="1:1">
+      <c r="A3401" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:1">
+      <c r="A3501" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:1">
+      <c r="A3601" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="3701" spans="1:1">
+      <c r="A3701" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="3801" spans="1:1">
+      <c r="A3801" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="3901" spans="1:1">
+      <c r="A3901" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="4001" spans="1:1">
+      <c r="A4001" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="4101" spans="1:1">
+      <c r="A4101" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="4201" spans="1:1">
+      <c r="A4201" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:1">
+      <c r="A4301" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="4401" spans="1:1">
+      <c r="A4401" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="4501" spans="1:1">
+      <c r="A4501" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="4601" spans="1:1">
+      <c r="A4601" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="4701" spans="1:1">
+      <c r="A4701" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="4801" spans="1:1">
+      <c r="A4801" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="4901" spans="1:1">
+      <c r="A4901" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="5001" spans="1:1">
+      <c r="A5001" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="5101" spans="1:1">
+      <c r="A5101" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="5201" spans="1:1">
+      <c r="A5201" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="5301" spans="1:1">
+      <c r="A5301" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="5401" spans="1:1">
+      <c r="A5401" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="5501" spans="1:1">
+      <c r="A5501" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="5601" spans="1:1">
+      <c r="A5601" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="5701" spans="1:1">
+      <c r="A5701" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="5801" spans="1:1">
+      <c r="A5801" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="5901" spans="1:1">
+      <c r="A5901" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="6001" spans="1:1">
+      <c r="A6001" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="6101" spans="1:1">
+      <c r="A6101" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="6201" spans="1:1">
+      <c r="A6201" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="6301" spans="1:1">
+      <c r="A6301" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="6401" spans="1:1">
+      <c r="A6401" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="6501" spans="1:1">
+      <c r="A6501" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="6601" spans="1:1">
+      <c r="A6601" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="6701" spans="1:1">
+      <c r="A6701" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="6801" spans="1:1">
+      <c r="A6801" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="6901" spans="1:1">
+      <c r="A6901" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="7001" spans="1:1">
+      <c r="A7001" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="7101" spans="1:1">
+      <c r="A7101" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="7201" spans="1:1">
+      <c r="A7201" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="7301" spans="1:1">
+      <c r="A7301" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7401" spans="1:1">
+      <c r="A7401" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="7501" spans="1:1">
+      <c r="A7501" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="7601" spans="1:1">
+      <c r="A7601" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="7701" spans="1:1">
+      <c r="A7701" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="7801" spans="1:1">
+      <c r="A7801" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="7901" spans="1:1">
+      <c r="A7901" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="8001" spans="1:1">
+      <c r="A8001" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="8101" spans="1:1">
+      <c r="A8101" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="8201" spans="1:1">
+      <c r="A8201" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="8301" spans="1:1">
+      <c r="A8301" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="8401" spans="1:1">
+      <c r="A8401" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="8501" spans="1:1">
+      <c r="A8501" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="8601" spans="1:1">
+      <c r="A8601" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="8701" spans="1:1">
+      <c r="A8701" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="8801" spans="1:1">
+      <c r="A8801" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="8901" spans="1:1">
+      <c r="A8901" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="9001" spans="1:1">
+      <c r="A9001" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="9101" spans="1:1">
+      <c r="A9101" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="9201" spans="1:1">
+      <c r="A9201" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="9301" spans="1:1">
+      <c r="A9301" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="9401" spans="1:1">
+      <c r="A9401" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="9501" spans="1:1">
+      <c r="A9501" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="9601" spans="1:1">
+      <c r="A9601" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="9701" spans="1:1">
+      <c r="A9701" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="9801" spans="1:1">
+      <c r="A9801" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="9901" spans="1:1">
+      <c r="A9901" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="10001" spans="1:1">
+      <c r="A10001" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="10101" spans="1:1">
+      <c r="A10101" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="10201" spans="1:1">
+      <c r="A10201" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="10301" spans="1:1">
+      <c r="A10301" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="10401" spans="1:1">
+      <c r="A10401" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="10501" spans="1:1">
+      <c r="A10501" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="10601" spans="1:1">
+      <c r="A10601" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="10701" spans="1:1">
+      <c r="A10701" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="10801" spans="1:1">
+      <c r="A10801" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="10901" spans="1:1">
+      <c r="A10901" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="11001" spans="1:1">
+      <c r="A11001" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="11101" spans="1:1">
+      <c r="A11101" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="11201" spans="1:1">
+      <c r="A11201" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="11301" spans="1:1">
+      <c r="A11301" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="11401" spans="1:1">
+      <c r="A11401" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="11501" spans="1:1">
+      <c r="A11501" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="11601" spans="1:1">
+      <c r="A11601" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="11701" spans="1:1">
+      <c r="A11701" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="11801" spans="1:1">
+      <c r="A11801" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="11901" spans="1:1">
+      <c r="A11901" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="12001" spans="1:1">
+      <c r="A12001" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="12101" spans="1:1">
+      <c r="A12101" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="12201" spans="1:1">
+      <c r="A12201" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="12301" spans="1:1">
+      <c r="A12301" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="12401" spans="1:1">
+      <c r="A12401" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="12501" spans="1:1">
+      <c r="A12501" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="12601" spans="1:1">
+      <c r="A12601" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="12701" spans="1:1">
+      <c r="A12701" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="12801" spans="1:1">
+      <c r="A12801" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="12901" spans="1:1">
+      <c r="A12901" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="13001" spans="1:1">
+      <c r="A13001" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="13101" spans="1:1">
+      <c r="A13101" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="13201" spans="1:1">
+      <c r="A13201" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="13301" spans="1:1">
+      <c r="A13301" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="13401" spans="1:1">
+      <c r="A13401" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="13501" spans="1:1">
+      <c r="A13501" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="13601" spans="1:1">
+      <c r="A13601" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="13701" spans="1:1">
+      <c r="A13701" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="13801" spans="1:1">
+      <c r="A13801" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="13901" spans="1:1">
+      <c r="A13901" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="14001" spans="1:1">
+      <c r="A14001" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="14101" spans="1:1">
+      <c r="A14101" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="14201" spans="1:1">
+      <c r="A14201" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="14301" spans="1:1">
+      <c r="A14301" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="14401" spans="1:1">
+      <c r="A14401" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="14501" spans="1:1">
+      <c r="A14501" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="14601" spans="1:1">
+      <c r="A14601" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="14701" spans="1:1">
+      <c r="A14701" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="14801" spans="1:1">
+      <c r="A14801" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="14901" spans="1:1">
+      <c r="A14901" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="15001" spans="1:1">
+      <c r="A15001" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="15101" spans="1:1">
+      <c r="A15101" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="15201" spans="1:1">
+      <c r="A15201" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="15301" spans="1:1">
+      <c r="A15301" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="15401" spans="1:1">
+      <c r="A15401" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="15501" spans="1:1">
+      <c r="A15501" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="15601" spans="1:1">
+      <c r="A15601" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="15701" spans="1:1">
+      <c r="A15701" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="15801" spans="1:1">
+      <c r="A15801" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="15901" spans="1:1">
+      <c r="A15901" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="16001" spans="1:1">
+      <c r="A16001" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="16101" spans="1:1">
+      <c r="A16101" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="16201" spans="1:1">
+      <c r="A16201" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="16301" spans="1:1">
+      <c r="A16301" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="16401" spans="1:1">
+      <c r="A16401" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="16501" spans="1:1">
+      <c r="A16501" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="16601" spans="1:1">
+      <c r="A16601" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="16701" spans="1:1">
+      <c r="A16701" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="16801" spans="1:1">
+      <c r="A16801" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="16901" spans="1:1">
+      <c r="A16901" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="17001" spans="1:1">
+      <c r="A17001" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="17101" spans="1:1">
+      <c r="A17101" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="17201" spans="1:1">
+      <c r="A17201" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="17301" spans="1:1">
+      <c r="A17301" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="17401" spans="1:1">
+      <c r="A17401" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="17501" spans="1:1">
+      <c r="A17501" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="17601" spans="1:1">
+      <c r="A17601" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="17701" spans="1:1">
+      <c r="A17701" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="17801" spans="1:1">
+      <c r="A17801" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="17901" spans="1:1">
+      <c r="A17901" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="18001" spans="1:1">
+      <c r="A18001" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="18101" spans="1:1">
+      <c r="A18101" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="18201" spans="1:1">
+      <c r="A18201" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="18301" spans="1:1">
+      <c r="A18301" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="18401" spans="1:1">
+      <c r="A18401" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="18501" spans="1:1">
+      <c r="A18501" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="18601" spans="1:1">
+      <c r="A18601" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="18701" spans="1:1">
+      <c r="A18701" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18801" spans="1:1">
+      <c r="A18801" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="18901" spans="1:1">
+      <c r="A18901" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="19001" spans="1:1">
+      <c r="A19001" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="19101" spans="1:1">
+      <c r="A19101" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="19201" spans="1:1">
+      <c r="A19201" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="19301" spans="1:1">
+      <c r="A19301" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="19401" spans="1:1">
+      <c r="A19401" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="19501" spans="1:1">
+      <c r="A19501" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="19601" spans="1:1">
+      <c r="A19601" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="19701" spans="1:1">
+      <c r="A19701" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="19801" spans="1:1">
+      <c r="A19801" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="19901" spans="1:1">
+      <c r="A19901" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="20001" spans="1:1">
+      <c r="A20001" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="20101" spans="1:1">
+      <c r="A20101" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="20201" spans="1:1">
+      <c r="A20201" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="20301" spans="1:1">
+      <c r="A20301" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="20401" spans="1:1">
+      <c r="A20401" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="20501" spans="1:1">
+      <c r="A20501" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="20601" spans="1:1">
+      <c r="A20601" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="20701" spans="1:1">
+      <c r="A20701" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="20801" spans="1:1">
+      <c r="A20801" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="20901" spans="1:1">
+      <c r="A20901" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="21001" spans="1:1">
+      <c r="A21001" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="21101" spans="1:1">
+      <c r="A21101" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="21201" spans="1:1">
+      <c r="A21201" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="21301" spans="1:1">
+      <c r="A21301" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="21401" spans="1:1">
+      <c r="A21401" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="21501" spans="1:1">
+      <c r="A21501" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="21601" spans="1:1">
+      <c r="A21601" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="21701" spans="1:1">
+      <c r="A21701" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="21801" spans="1:1">
+      <c r="A21801" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="21901" spans="1:1">
+      <c r="A21901" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="22001" spans="1:1">
+      <c r="A22001" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="22101" spans="1:1">
+      <c r="A22101" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="22201" spans="1:1">
+      <c r="A22201" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="22301" spans="1:1">
+      <c r="A22301" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="22401" spans="1:1">
+      <c r="A22401" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="22501" spans="1:1">
+      <c r="A22501" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="22601" spans="1:1">
+      <c r="A22601" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="22701" spans="1:1">
+      <c r="A22701" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="22801" spans="1:1">
+      <c r="A22801" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="22901" spans="1:1">
+      <c r="A22901" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="23001" spans="1:1">
+      <c r="A23001" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="23101" spans="1:1">
+      <c r="A23101" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="23201" spans="1:1">
+      <c r="A23201" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="23301" spans="1:1">
+      <c r="A23301" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="23401" spans="1:1">
+      <c r="A23401" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="23501" spans="1:1">
+      <c r="A23501" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="23601" spans="1:1">
+      <c r="A23601" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="23701" spans="1:1">
+      <c r="A23701" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="23801" spans="1:1">
+      <c r="A23801" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="23901" spans="1:1">
+      <c r="A23901" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="24001" spans="1:1">
+      <c r="A24001" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="24101" spans="1:1">
+      <c r="A24101" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="24201" spans="1:1">
+      <c r="A24201" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="24301" spans="1:1">
+      <c r="A24301" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="24401" spans="1:1">
+      <c r="A24401" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="24501" spans="1:1">
+      <c r="A24501" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="24601" spans="1:1">
+      <c r="A24601" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="24701" spans="1:1">
+      <c r="A24701" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="24801" spans="1:1">
+      <c r="A24801" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="24901" spans="1:1">
+      <c r="A24901" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="25001" spans="1:1">
+      <c r="A25001" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="25101" spans="1:1">
+      <c r="A25101" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="25201" spans="1:1">
+      <c r="A25201" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="25301" spans="1:1">
+      <c r="A25301" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="25401" spans="1:1">
+      <c r="A25401" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="25501" spans="1:1">
+      <c r="A25501" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="25601" spans="1:1">
+      <c r="A25601" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="25701" spans="1:1">
+      <c r="A25701" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="25801" spans="1:1">
+      <c r="A25801" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="25901" spans="1:1">
+      <c r="A25901" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="26001" spans="1:1">
+      <c r="A26001" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="26101" spans="1:1">
+      <c r="A26101" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="26201" spans="1:1">
+      <c r="A26201" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="26301" spans="1:1">
+      <c r="A26301" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="26401" spans="1:1">
+      <c r="A26401" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="26501" spans="1:1">
+      <c r="A26501" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="26601" spans="1:1">
+      <c r="A26601" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="26701" spans="1:1">
+      <c r="A26701" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="26801" spans="1:1">
+      <c r="A26801" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="26901" spans="1:1">
+      <c r="A26901" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="27001" spans="1:1">
+      <c r="A27001" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="27101" spans="1:1">
+      <c r="A27101" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="27201" spans="1:1">
+      <c r="A27201" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="27301" spans="1:1">
+      <c r="A27301" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="27401" spans="1:1">
+      <c r="A27401" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="27501" spans="1:1">
+      <c r="A27501" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="27601" spans="1:1">
+      <c r="A27601" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="27701" spans="1:1">
+      <c r="A27701" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="27801" spans="1:1">
+      <c r="A27801" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="27901" spans="1:1">
+      <c r="A27901" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="28001" spans="1:1">
+      <c r="A28001" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="28101" spans="1:1">
+      <c r="A28101" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="28201" spans="1:1">
+      <c r="A28201" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="28301" spans="1:1">
+      <c r="A28301" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="28401" spans="1:1">
+      <c r="A28401" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="28501" spans="1:1">
+      <c r="A28501" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="28601" spans="1:1">
+      <c r="A28601" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="28701" spans="1:1">
+      <c r="A28701" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="28801" spans="1:1">
+      <c r="A28801" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="28901" spans="1:1">
+      <c r="A28901" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="29001" spans="1:1">
+      <c r="A29001" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="29101" spans="1:1">
+      <c r="A29101" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="29201" spans="1:1">
+      <c r="A29201" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="29301" spans="1:1">
+      <c r="A29301" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="29401" spans="1:1">
+      <c r="A29401" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="29501" spans="1:1">
+      <c r="A29501" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="29601" spans="1:1">
+      <c r="A29601" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="29701" spans="1:1">
+      <c r="A29701" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="29801" spans="1:1">
+      <c r="A29801" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="29901" spans="1:1">
+      <c r="A29901" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="30001" spans="1:1">
+      <c r="A30001" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="30101" spans="1:1">
+      <c r="A30101" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="30201" spans="1:1">
+      <c r="A30201" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="30301" spans="1:1">
+      <c r="A30301" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="30401" spans="1:1">
+      <c r="A30401" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="30501" spans="1:1">
+      <c r="A30501" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="30601" spans="1:1">
+      <c r="A30601" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="30701" spans="1:1">
+      <c r="A30701" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="30801" spans="1:1">
+      <c r="A30801" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="30901" spans="1:1">
+      <c r="A30901" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="31001" spans="1:1">
+      <c r="A31001" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="31101" spans="1:1">
+      <c r="A31101" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="31201" spans="1:1">
+      <c r="A31201" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="31301" spans="1:1">
+      <c r="A31301" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="31401" spans="1:1">
+      <c r="A31401" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="31501" spans="1:1">
+      <c r="A31501" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="31601" spans="1:1">
+      <c r="A31601" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="31701" spans="1:1">
+      <c r="A31701" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="31801" spans="1:1">
+      <c r="A31801" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="31901" spans="1:1">
+      <c r="A31901" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="32001" spans="1:1">
+      <c r="A32001" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="32101" spans="1:1">
+      <c r="A32101" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="32201" spans="1:1">
+      <c r="A32201" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="32301" spans="1:1">
+      <c r="A32301" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="32401" spans="1:1">
+      <c r="A32401" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="32501" spans="1:1">
+      <c r="A32501" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="32601" spans="1:1">
+      <c r="A32601" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="32701" spans="1:1">
+      <c r="A32701" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="32801" spans="1:1">
+      <c r="A32801" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="32901" spans="1:1">
+      <c r="A32901" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="33001" spans="1:1">
+      <c r="A33001" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="33101" spans="1:1">
+      <c r="A33101" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="33201" spans="1:1">
+      <c r="A33201" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="33301" spans="1:1">
+      <c r="A33301" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="33401" spans="1:1">
+      <c r="A33401" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="33501" spans="1:1">
+      <c r="A33501" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="33601" spans="1:1">
+      <c r="A33601" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="33701" spans="1:1">
+      <c r="A33701" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="33801" spans="1:1">
+      <c r="A33801" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="33901" spans="1:1">
+      <c r="A33901" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="34001" spans="1:1">
+      <c r="A34001" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="34101" spans="1:1">
+      <c r="A34101" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="34201" spans="1:1">
+      <c r="A34201" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="34301" spans="1:1">
+      <c r="A34301" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="34401" spans="1:1">
+      <c r="A34401" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="34501" spans="1:1">
+      <c r="A34501" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="34601" spans="1:1">
+      <c r="A34601" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="34701" spans="1:1">
+      <c r="A34701" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="34801" spans="1:1">
+      <c r="A34801" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="34901" spans="1:1">
+      <c r="A34901" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="35001" spans="1:1">
+      <c r="A35001" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="35101" spans="1:1">
+      <c r="A35101" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="35201" spans="1:1">
+      <c r="A35201" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="35301" spans="1:1">
+      <c r="A35301" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="35401" spans="1:1">
+      <c r="A35401" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="35501" spans="1:1">
+      <c r="A35501" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="35601" spans="1:1">
+      <c r="A35601" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="35701" spans="1:1">
+      <c r="A35701" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="35801" spans="1:1">
+      <c r="A35801" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="35901" spans="1:1">
+      <c r="A35901" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="36001" spans="1:1">
+      <c r="A36001" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="36101" spans="1:1">
+      <c r="A36101" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="36201" spans="1:1">
+      <c r="A36201" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="36301" spans="1:1">
+      <c r="A36301" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="36401" spans="1:1">
+      <c r="A36401" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="36501" spans="1:1">
+      <c r="A36501" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="36601" spans="1:1">
+      <c r="A36601" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="36701" spans="1:1">
+      <c r="A36701" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="36801" spans="1:1">
+      <c r="A36801" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="36901" spans="1:1">
+      <c r="A36901" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="37001" spans="1:1">
+      <c r="A37001" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="37101" spans="1:1">
+      <c r="A37101" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="37201" spans="1:1">
+      <c r="A37201" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="37301" spans="1:1">
+      <c r="A37301" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="37401" spans="1:1">
+      <c r="A37401" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="37501" spans="1:1">
+      <c r="A37501" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="37601" spans="1:1">
+      <c r="A37601" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="37701" spans="1:1">
+      <c r="A37701" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="37801" spans="1:1">
+      <c r="A37801" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="37901" spans="1:1">
+      <c r="A37901" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="38001" spans="1:1">
+      <c r="A38001" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="38101" spans="1:1">
+      <c r="A38101" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="38201" spans="1:1">
+      <c r="A38201" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="38301" spans="1:1">
+      <c r="A38301" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="38401" spans="1:1">
+      <c r="A38401" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="38501" spans="1:1">
+      <c r="A38501" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="38601" spans="1:1">
+      <c r="A38601" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="38701" spans="1:1">
+      <c r="A38701" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="38801" spans="1:1">
+      <c r="A38801" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="38901" spans="1:1">
+      <c r="A38901" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="39001" spans="1:1">
+      <c r="A39001" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="39101" spans="1:1">
+      <c r="A39101" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="39201" spans="1:1">
+      <c r="A39201" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="39301" spans="1:1">
+      <c r="A39301" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="39401" spans="1:1">
+      <c r="A39401" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="39501" spans="1:1">
+      <c r="A39501" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="39601" spans="1:1">
+      <c r="A39601" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="39701" spans="1:1">
+      <c r="A39701" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="39801" spans="1:1">
+      <c r="A39801" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="39901" spans="1:1">
+      <c r="A39901" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="40001" spans="1:1">
+      <c r="A40001" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="40101" spans="1:1">
+      <c r="A40101" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="40201" spans="1:1">
+      <c r="A40201" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="40301" spans="1:1">
+      <c r="A40301" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="40401" spans="1:1">
+      <c r="A40401" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="40501" spans="1:1">
+      <c r="A40501" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="40601" spans="1:1">
+      <c r="A40601" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="40701" spans="1:1">
+      <c r="A40701" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="40801" spans="1:1">
+      <c r="A40801" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="40901" spans="1:1">
+      <c r="A40901" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="41001" spans="1:1">
+      <c r="A41001" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="41101" spans="1:1">
+      <c r="A41101" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="41201" spans="1:1">
+      <c r="A41201" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="41301" spans="1:1">
+      <c r="A41301" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="41401" spans="1:1">
+      <c r="A41401" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="41501" spans="1:1">
+      <c r="A41501" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="41601" spans="1:1">
+      <c r="A41601" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="41701" spans="1:1">
+      <c r="A41701" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="41801" spans="1:1">
+      <c r="A41801" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="41901" spans="1:1">
+      <c r="A41901" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="42001" spans="1:1">
+      <c r="A42001" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="42101" spans="1:1">
+      <c r="A42101" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="42201" spans="1:1">
+      <c r="A42201" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="42301" spans="1:1">
+      <c r="A42301" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="42401" spans="1:1">
+      <c r="A42401" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="42501" spans="1:1">
+      <c r="A42501" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="42601" spans="1:1">
+      <c r="A42601" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="42701" spans="1:1">
+      <c r="A42701" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="42801" spans="1:1">
+      <c r="A42801" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="42901" spans="1:1">
+      <c r="A42901" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="43001" spans="1:1">
+      <c r="A43001" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="43101" spans="1:1">
+      <c r="A43101" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="43201" spans="1:1">
+      <c r="A43201" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="43301" spans="1:1">
+      <c r="A43301" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="43401" spans="1:1">
+      <c r="A43401" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="43501" spans="1:1">
+      <c r="A43501" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="43601" spans="1:1">
+      <c r="A43601" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="43701" spans="1:1">
+      <c r="A43701" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="43801" spans="1:1">
+      <c r="A43801" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="43901" spans="1:1">
+      <c r="A43901" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="44001" spans="1:1">
+      <c r="A44001" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="44101" spans="1:1">
+      <c r="A44101" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="44201" spans="1:1">
+      <c r="A44201" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="44301" spans="1:1">
+      <c r="A44301" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="44401" spans="1:1">
+      <c r="A44401" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="44501" spans="1:1">
+      <c r="A44501" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="44601" spans="1:1">
+      <c r="A44601" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="44701" spans="1:1">
+      <c r="A44701" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="44801" spans="1:1">
+      <c r="A44801" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="44901" spans="1:1">
+      <c r="A44901" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="45001" spans="1:1">
+      <c r="A45001" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="45101" spans="1:1">
+      <c r="A45101" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="45201" spans="1:1">
+      <c r="A45201" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="45301" spans="1:1">
+      <c r="A45301" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="45401" spans="1:1">
+      <c r="A45401" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="45501" spans="1:1">
+      <c r="A45501" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="45601" spans="1:1">
+      <c r="A45601" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="45701" spans="1:1">
+      <c r="A45701" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="45801" spans="1:1">
+      <c r="A45801" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="45901" spans="1:1">
+      <c r="A45901" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="46001" spans="1:1">
+      <c r="A46001" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="46101" spans="1:1">
+      <c r="A46101" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="46201" spans="1:1">
+      <c r="A46201" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="46301" spans="1:1">
+      <c r="A46301" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="46401" spans="1:1">
+      <c r="A46401" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="46501" spans="1:1">
+      <c r="A46501" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="46601" spans="1:1">
+      <c r="A46601" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="46701" spans="1:1">
+      <c r="A46701" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="46801" spans="1:1">
+      <c r="A46801" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="46901" spans="1:1">
+      <c r="A46901" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="47001" spans="1:1">
+      <c r="A47001" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="47101" spans="1:1">
+      <c r="A47101" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="47201" spans="1:1">
+      <c r="A47201" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="47301" spans="1:1">
+      <c r="A47301" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="47401" spans="1:1">
+      <c r="A47401" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="47501" spans="1:1">
+      <c r="A47501" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="47601" spans="1:1">
+      <c r="A47601" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="47701" spans="1:1">
+      <c r="A47701" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="47801" spans="1:1">
+      <c r="A47801" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="47901" spans="1:1">
+      <c r="A47901" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="48001" spans="1:1">
+      <c r="A48001" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="48101" spans="1:1">
+      <c r="A48101" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="48201" spans="1:1">
+      <c r="A48201" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="48301" spans="1:1">
+      <c r="A48301" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="48401" spans="1:1">
+      <c r="A48401" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="48501" spans="1:1">
+      <c r="A48501" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="48601" spans="1:1">
+      <c r="A48601" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="48701" spans="1:1">
+      <c r="A48701" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="48801" spans="1:1">
+      <c r="A48801" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="48901" spans="1:1">
+      <c r="A48901" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="49001" spans="1:1">
+      <c r="A49001" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="49101" spans="1:1">
+      <c r="A49101" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="49201" spans="1:1">
+      <c r="A49201" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="49301" spans="1:1">
+      <c r="A49301" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="49401" spans="1:1">
+      <c r="A49401" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="49501" spans="1:1">
+      <c r="A49501" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="49601" spans="1:1">
+      <c r="A49601" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="49701" spans="1:1">
+      <c r="A49701" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="49801" spans="1:1">
+      <c r="A49801" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="49901" spans="1:1">
+      <c r="A49901" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>